--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\NewTechSSB_CucumberBDD_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958FD0A-25F7-415F-B28A-1363D800773D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCEDCB-105A-4E29-8181-E32DC614CB0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18350" windowHeight="6830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\NewTechSSB_CucumberBDD_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCEDCB-105A-4E29-8181-E32DC614CB0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740589EB-8E47-483A-A53F-82866D77220E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18350" windowHeight="6830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18350" windowHeight="6830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>TCName</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>TC01_Validate Get API list Users</t>
+  </si>
+  <si>
+    <t>TC06_New_Note_E2E_validate</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -552,9 +555,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -562,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
